--- a/src/test/resources/unittesting/artifact/script/unitTest_project_properties.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_project_properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E476069-449A-481A-99A8-F364E3C1D79B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5846305-8B36-4553-95A5-625010CD53E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="623">
   <si>
     <t>target</t>
   </si>
@@ -1897,9 +1897,6 @@
     <t>Test UnitTesting</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>ProceedIf(${nexial.env} = UnitTesting)</t>
   </si>
   <si>
@@ -1919,6 +1916,21 @@
   </si>
   <si>
     <t>UnitTesting.Limit</t>
+  </si>
+  <si>
+    <t>assert var defined at project.properties loaded</t>
+  </si>
+  <si>
+    <t>assert var from project.properties is loaded has expected value</t>
+  </si>
+  <si>
+    <t>${Default.Name}</t>
+  </si>
+  <si>
+    <t>No1WorksHere</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -2226,34 +2238,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
@@ -2289,6 +2273,34 @@
     <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4752,12 +4764,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -4779,12 +4791,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.1" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="36" t="s">
         <v>537</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="18" t="s">
         <v>538</v>
       </c>
@@ -4802,20 +4814,20 @@
       </c>
       <c r="J1" s="23"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="38" t="s">
         <v>543</v>
       </c>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="1:15" ht="93" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="40" t="s">
         <v>544</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="19"/>
       <c r="F2" s="20"/>
       <c r="G2" s="19"/>
@@ -4825,10 +4837,10 @@
       </c>
       <c r="J2" s="23"/>
       <c r="K2" s="14"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
     </row>
     <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1">
       <c r="A3" s="11"/>
@@ -4906,7 +4918,7 @@
         <v>350</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>611</v>
+        <v>622</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
@@ -4923,13 +4935,13 @@
     </row>
     <row r="6" spans="1:15" ht="24" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="28" t="s">
         <v>609</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="38" t="s">
+      <c r="D6" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E6" s="5" t="s">
@@ -4950,13 +4962,13 @@
     </row>
     <row r="7" spans="1:15" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="31" t="s">
         <v>609</v>
       </c>
-      <c r="C7" s="35" t="s">
+      <c r="C7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="32" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="17" t="s">
@@ -4977,13 +4989,13 @@
     </row>
     <row r="8" spans="1:15" ht="24" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="31" t="s">
         <v>608</v>
       </c>
-      <c r="C8" s="35" t="s">
+      <c r="C8" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="32" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="17" t="s">
@@ -5004,13 +5016,13 @@
     </row>
     <row r="9" spans="1:15" ht="24" customHeight="1">
       <c r="A9" s="11"/>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="31" t="s">
         <v>607</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="40" t="s">
+      <c r="D9" s="32" t="s">
         <v>269</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -5029,14 +5041,14 @@
     </row>
     <row r="10" spans="1:15" ht="18.95" customHeight="1">
       <c r="A10" s="11"/>
-      <c r="B10" s="41" t="s">
-        <v>606</v>
-      </c>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="31" t="s">
+        <v>618</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>269</v>
+      <c r="D10" s="32" t="s">
+        <v>279</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>605</v>
@@ -5053,28 +5065,26 @@
       <c r="O10" s="14"/>
     </row>
     <row r="11" spans="1:15" ht="18.95" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>615</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>350</v>
+      <c r="D11" s="35" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>611</v>
-      </c>
-      <c r="F11" s="17"/>
+        <v>621</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>620</v>
+      </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="22" t="s">
-        <v>612</v>
-      </c>
+      <c r="J11" s="22"/>
       <c r="K11" s="14"/>
       <c r="L11" s="21"/>
       <c r="M11" s="13"/>
@@ -5082,26 +5092,28 @@
       <c r="O11" s="14"/>
     </row>
     <row r="12" spans="1:15" ht="18.95" customHeight="1">
-      <c r="A12" s="11"/>
-      <c r="B12" s="36" t="s">
-        <v>609</v>
-      </c>
-      <c r="C12" s="37" t="s">
+      <c r="A12" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="38" t="s">
-        <v>40</v>
+      <c r="D12" s="17" t="s">
+        <v>350</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>613</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>598</v>
-      </c>
+        <v>622</v>
+      </c>
+      <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="22"/>
+      <c r="J12" s="22" t="s">
+        <v>611</v>
+      </c>
       <c r="K12" s="14"/>
       <c r="L12" s="21"/>
       <c r="M12" s="13"/>
@@ -5110,20 +5122,20 @@
     </row>
     <row r="13" spans="1:15" ht="18.95" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="28" t="s">
         <v>609</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="30" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
@@ -5137,19 +5149,21 @@
     </row>
     <row r="14" spans="1:15" ht="18.95" customHeight="1">
       <c r="A14" s="11"/>
-      <c r="B14" s="39" t="s">
-        <v>608</v>
-      </c>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="31" t="s">
+        <v>609</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>269</v>
+      <c r="D14" s="32" t="s">
+        <v>40</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="F14" s="17"/>
+        <v>613</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>601</v>
+      </c>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
@@ -5162,21 +5176,19 @@
     </row>
     <row r="15" spans="1:15" ht="18.95" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="39" t="s">
-        <v>607</v>
-      </c>
-      <c r="C15" s="35" t="s">
+      <c r="B15" s="31" t="s">
+        <v>608</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="E15" s="17" t="s">
         <v>617</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>616</v>
-      </c>
+      <c r="F15" s="17"/>
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
@@ -5189,19 +5201,21 @@
     </row>
     <row r="16" spans="1:15" ht="18.95" customHeight="1">
       <c r="A16" s="11"/>
-      <c r="B16" s="41" t="s">
-        <v>606</v>
-      </c>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="C16" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>605</v>
-      </c>
-      <c r="F16" s="17"/>
+      <c r="D16" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>615</v>
+      </c>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -5214,10 +5228,18 @@
     </row>
     <row r="17" spans="1:15" ht="18.95" customHeight="1">
       <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="B17" s="31" t="s">
+        <v>606</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>605</v>
+      </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
@@ -5231,11 +5253,21 @@
     </row>
     <row r="18" spans="1:15" ht="18.95" customHeight="1">
       <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
+      <c r="B18" s="33" t="s">
+        <v>619</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>620</v>
+      </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -5279,6 +5311,40 @@
       <c r="M20" s="13"/>
       <c r="N20" s="21"/>
       <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="1:15" ht="18.95" customHeight="1">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" ht="18.95" customHeight="1">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="14"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -5300,10 +5366,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C20" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C22" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D20" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D22" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/test/resources/unittesting/artifact/script/unitTest_project_properties.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_project_properties.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
@@ -21,12 +21,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -47,22 +47,24 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="660">
   <si>
     <t>target</t>
   </si>
@@ -1931,13 +1933,125 @@
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <numFmts count="0"/>
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1994,8 +2108,115 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="29">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2018,6 +2239,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2144,7 +2501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2301,6 +2658,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2617,18 +3025,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="18" width="8.375" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2717,16 +3125,22 @@
         <v>27</v>
       </c>
       <c r="AD1" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>624</v>
+      </c>
+      <c r="AF1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2815,16 +3229,22 @@
         <v>56</v>
       </c>
       <c r="AD2" t="s">
+        <v>649</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>652</v>
+      </c>
+      <c r="AF2" t="s">
         <v>57</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2907,16 +3327,22 @@
         <v>83</v>
       </c>
       <c r="AD3" t="s">
+        <v>650</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>653</v>
+      </c>
+      <c r="AF3" t="s">
         <v>84</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>85</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2996,16 +3422,22 @@
         <v>109</v>
       </c>
       <c r="AD4" t="s">
+        <v>651</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>654</v>
+      </c>
+      <c r="AF4" t="s">
         <v>85</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>110</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3072,17 +3504,20 @@
       <c r="AC5" t="s">
         <v>131</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>655</v>
+      </c>
+      <c r="AF5" t="s">
         <v>132</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>133</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3143,17 +3578,20 @@
       <c r="AC6" t="s">
         <v>153</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>656</v>
+      </c>
+      <c r="AF6" t="s">
         <v>154</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>155</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3208,17 +3646,20 @@
       <c r="AC7" t="s">
         <v>170</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>657</v>
+      </c>
+      <c r="AF7" t="s">
         <v>171</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>172</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3232,7 +3673,7 @@
         <v>176</v>
       </c>
       <c r="I8" t="s">
-        <v>177</v>
+        <v>645</v>
       </c>
       <c r="K8" t="s">
         <v>161</v>
@@ -3270,17 +3711,20 @@
       <c r="AC8" t="s">
         <v>187</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>658</v>
+      </c>
+      <c r="AF8" t="s">
         <v>188</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>189</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3294,7 +3738,7 @@
         <v>193</v>
       </c>
       <c r="I9" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="L9" t="s">
         <v>178</v>
@@ -3326,14 +3770,17 @@
       <c r="AC9" t="s">
         <v>203</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>659</v>
+      </c>
+      <c r="AF9" t="s">
         <v>204</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3344,7 +3791,7 @@
         <v>206</v>
       </c>
       <c r="I10" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="L10" t="s">
         <v>195</v>
@@ -3370,14 +3817,14 @@
       <c r="AC10" t="s">
         <v>215</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>216</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3388,7 +3835,7 @@
         <v>219</v>
       </c>
       <c r="I11" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="L11" t="s">
         <v>208</v>
@@ -3408,14 +3855,14 @@
       <c r="AA11" t="s">
         <v>226</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>227</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3426,7 +3873,7 @@
         <v>230</v>
       </c>
       <c r="I12" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="L12" t="s">
         <v>221</v>
@@ -3446,14 +3893,14 @@
       <c r="AA12" t="s">
         <v>237</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>238</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3464,7 +3911,7 @@
         <v>240</v>
       </c>
       <c r="I13" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="L13" t="s">
         <v>232</v>
@@ -3484,14 +3931,14 @@
       <c r="AA13" t="s">
         <v>246</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>247</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3502,7 +3949,7 @@
         <v>250</v>
       </c>
       <c r="I14" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="L14" t="s">
         <v>242</v>
@@ -3519,14 +3966,14 @@
       <c r="AA14" t="s">
         <v>256</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>257</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -3537,7 +3984,7 @@
         <v>260</v>
       </c>
       <c r="I15" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="L15" t="s">
         <v>252</v>
@@ -3554,14 +4001,14 @@
       <c r="AA15" t="s">
         <v>568</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>267</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -3572,7 +4019,7 @@
         <v>270</v>
       </c>
       <c r="I16" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="L16" t="s">
         <v>262</v>
@@ -3589,14 +4036,14 @@
       <c r="AA16" t="s">
         <v>266</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>277</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -3606,6 +4053,9 @@
       <c r="H17" t="s">
         <v>280</v>
       </c>
+      <c r="I17" t="s">
+        <v>271</v>
+      </c>
       <c r="L17" t="s">
         <v>272</v>
       </c>
@@ -3618,14 +4068,14 @@
       <c r="AA17" t="s">
         <v>276</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>285</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -3635,6 +4085,9 @@
       <c r="H18" t="s">
         <v>288</v>
       </c>
+      <c r="I18" t="s">
+        <v>646</v>
+      </c>
       <c r="L18" t="s">
         <v>281</v>
       </c>
@@ -3647,16 +4100,16 @@
       <c r="AA18" t="s">
         <v>284</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>287</v>
+        <v>625</v>
       </c>
       <c r="H19" t="s">
         <v>294</v>
@@ -3670,16 +4123,16 @@
       <c r="AA19" t="s">
         <v>291</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>571</v>
+        <v>626</v>
       </c>
       <c r="H20" t="s">
         <v>299</v>
@@ -3693,16 +4146,16 @@
       <c r="AA20" t="s">
         <v>296</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>572</v>
+        <v>287</v>
       </c>
       <c r="H21" t="s">
         <v>304</v>
@@ -3716,16 +4169,16 @@
       <c r="AA21" t="s">
         <v>301</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H22" t="s">
         <v>309</v>
@@ -3736,16 +4189,16 @@
       <c r="AA22" t="s">
         <v>306</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>293</v>
+        <v>572</v>
       </c>
       <c r="H23" t="s">
         <v>314</v>
@@ -3756,16 +4209,16 @@
       <c r="AA23" t="s">
         <v>311</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>298</v>
+        <v>573</v>
       </c>
       <c r="H24" t="s">
         <v>319</v>
@@ -3776,16 +4229,16 @@
       <c r="AA24" t="s">
         <v>316</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="H25" t="s">
         <v>324</v>
@@ -3796,964 +4249,1025 @@
       <c r="AA25" t="s">
         <v>321</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="26" spans="1:32">
+    <row r="26">
       <c r="A26" t="s">
         <v>561</v>
       </c>
       <c r="F26" t="s">
-        <v>574</v>
+        <v>298</v>
       </c>
       <c r="H26" t="s">
-        <v>329</v>
+        <v>627</v>
       </c>
       <c r="L26" t="s">
         <v>325</v>
       </c>
       <c r="AA26" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>647</v>
+      </c>
+      <c r="AH26" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="27" spans="1:32">
+    <row r="27">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H27" t="s">
-        <v>334</v>
+        <v>628</v>
       </c>
       <c r="L27" t="s">
         <v>576</v>
       </c>
       <c r="AA27" t="s">
-        <v>331</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>326</v>
+      </c>
+      <c r="AH27" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="28" spans="1:32">
+    <row r="28">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="F28" t="s">
-        <v>313</v>
+        <v>574</v>
       </c>
       <c r="H28" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="L28" t="s">
         <v>330</v>
       </c>
       <c r="AA28" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:32">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="F29" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="H29" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="L29" t="s">
         <v>335</v>
       </c>
       <c r="AA29" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="30" spans="1:32">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>623</v>
       </c>
       <c r="F30" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="H30" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L30" t="s">
         <v>340</v>
       </c>
       <c r="AA30" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="31" spans="1:32">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>624</v>
       </c>
       <c r="F31" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="H31" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L31" t="s">
         <v>344</v>
       </c>
       <c r="AA31" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="32" spans="1:32">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="H32" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="L32" t="s">
         <v>348</v>
       </c>
       <c r="AA32" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" t="s">
+        <v>328</v>
+      </c>
+      <c r="H33" t="s">
+        <v>351</v>
+      </c>
+      <c r="AA33" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="33" spans="6:27">
-      <c r="F33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" t="s">
+        <v>333</v>
+      </c>
+      <c r="H34" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
         <v>338</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H35" t="s">
         <v>357</v>
       </c>
-      <c r="AA33" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="34" spans="6:27">
-      <c r="F34" t="s">
+      <c r="AA35" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="s">
         <v>342</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H36" t="s">
         <v>360</v>
       </c>
-      <c r="AA34" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="35" spans="6:27">
-      <c r="F35" t="s">
+      <c r="AA36" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="s">
         <v>346</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H37" t="s">
         <v>363</v>
       </c>
-      <c r="AA35" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="36" spans="6:27">
-      <c r="F36" t="s">
+      <c r="AA37" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="s">
         <v>350</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H38" t="s">
         <v>366</v>
       </c>
-      <c r="AA36" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="37" spans="6:27">
-      <c r="F37" t="s">
+      <c r="AA38" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="s">
         <v>353</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H39" t="s">
         <v>369</v>
       </c>
-      <c r="AA37" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="38" spans="6:27">
-      <c r="F38" t="s">
+      <c r="AA39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
         <v>356</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H40" t="s">
         <v>372</v>
       </c>
-      <c r="AA38" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="39" spans="6:27">
-      <c r="F39" t="s">
+      <c r="AA40" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" t="s">
         <v>359</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H41" t="s">
         <v>375</v>
       </c>
-      <c r="AA39" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="40" spans="6:27">
-      <c r="F40" t="s">
+      <c r="AA41" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" t="s">
         <v>362</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H42" t="s">
         <v>377</v>
       </c>
-      <c r="AA40" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="41" spans="6:27">
-      <c r="F41" t="s">
+      <c r="AA42" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" t="s">
         <v>365</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H43" t="s">
+        <v>629</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" t="s">
+        <v>368</v>
+      </c>
+      <c r="H44" t="s">
         <v>379</v>
       </c>
-      <c r="AA41" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="42" spans="6:27">
-      <c r="F42" t="s">
-        <v>368</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="AA44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" t="s">
+        <v>371</v>
+      </c>
+      <c r="H45" t="s">
         <v>381</v>
       </c>
-      <c r="AA42" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="43" spans="6:27">
-      <c r="F43" t="s">
-        <v>371</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="AA45" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>374</v>
+      </c>
+      <c r="H46" t="s">
         <v>383</v>
       </c>
-      <c r="AA43" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="44" spans="6:27">
-      <c r="F44" t="s">
-        <v>374</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="AA46" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
+        <v>575</v>
+      </c>
+      <c r="H47" t="s">
         <v>385</v>
       </c>
-      <c r="AA44" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="6:27">
-      <c r="F45" t="s">
-        <v>575</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="AA47" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="H48" t="s">
         <v>387</v>
       </c>
-      <c r="AA45" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="46" spans="6:27">
-      <c r="H46" t="s">
+      <c r="AA48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="H49" t="s">
         <v>389</v>
       </c>
-      <c r="AA46" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="47" spans="6:27">
-      <c r="H47" t="s">
+      <c r="AA49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="H50" t="s">
         <v>391</v>
       </c>
-      <c r="AA47" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="48" spans="6:27">
-      <c r="H48" t="s">
+      <c r="AA50" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="H51" t="s">
         <v>393</v>
       </c>
-      <c r="AA48" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="49" spans="8:27">
-      <c r="H49" t="s">
+      <c r="AA51" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="H52" t="s">
         <v>395</v>
       </c>
-      <c r="AA49" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="50" spans="8:27">
-      <c r="H50" t="s">
+      <c r="AA52" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="H53" t="s">
         <v>397</v>
       </c>
-      <c r="AA50" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="51" spans="8:27">
-      <c r="H51" t="s">
+      <c r="AA53" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="H54" t="s">
+        <v>630</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="H55" t="s">
+        <v>631</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="H56" t="s">
+        <v>632</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="H57" t="s">
+        <v>633</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="H58" t="s">
         <v>398</v>
       </c>
-      <c r="AA51" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="52" spans="8:27">
-      <c r="H52" t="s">
+      <c r="AA58" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="H59" t="s">
         <v>400</v>
       </c>
-      <c r="AA52" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="53" spans="8:27">
-      <c r="H53" t="s">
+      <c r="AA59" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="H60" t="s">
         <v>402</v>
       </c>
-      <c r="AA53" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="54" spans="8:27">
-      <c r="H54" t="s">
-        <v>404</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="55" spans="8:27">
-      <c r="H55" t="s">
+      <c r="AA60" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="H61" t="s">
         <v>406</v>
       </c>
-      <c r="AA55" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="56" spans="8:27">
-      <c r="H56" t="s">
+      <c r="AA61" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="H62" t="s">
         <v>408</v>
       </c>
-      <c r="AA56" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="57" spans="8:27">
-      <c r="H57" t="s">
+      <c r="AA62" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="H63" t="s">
         <v>410</v>
       </c>
-      <c r="AA57" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="58" spans="8:27">
-      <c r="H58" t="s">
+      <c r="AA63" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="H64" t="s">
         <v>412</v>
       </c>
-      <c r="AA58" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="59" spans="8:27">
-      <c r="H59" t="s">
+      <c r="AA64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="H65" t="s">
         <v>414</v>
       </c>
-      <c r="AA59" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="60" spans="8:27">
-      <c r="H60" t="s">
+      <c r="AA65" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="H66" t="s">
         <v>416</v>
       </c>
-      <c r="AA60" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="61" spans="8:27">
-      <c r="H61" t="s">
-        <v>418</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="62" spans="8:27">
-      <c r="H62" t="s">
+      <c r="AA66" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="H67" t="s">
+        <v>634</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="H68" t="s">
+        <v>635</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="H69" t="s">
+        <v>636</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="H70" t="s">
         <v>420</v>
       </c>
-      <c r="AA62" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="63" spans="8:27">
-      <c r="H63" t="s">
+      <c r="AA70" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="H71" t="s">
+        <v>637</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="H72" t="s">
+        <v>638</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="H73" t="s">
         <v>422</v>
       </c>
-      <c r="AA63" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="64" spans="8:27">
-      <c r="H64" t="s">
+      <c r="AA73" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="H74" t="s">
         <v>424</v>
       </c>
-      <c r="AA64" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="65" spans="8:27">
-      <c r="H65" t="s">
+      <c r="AA74" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="H75" t="s">
         <v>426</v>
       </c>
-      <c r="AA65" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="66" spans="8:27">
-      <c r="H66" t="s">
+      <c r="AA75" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="H76" t="s">
         <v>428</v>
       </c>
-      <c r="AA66" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="67" spans="8:27">
-      <c r="H67" t="s">
+      <c r="AA76" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="H77" t="s">
         <v>430</v>
       </c>
-      <c r="AA67" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="68" spans="8:27">
-      <c r="H68" t="s">
+      <c r="AA77" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="H78" t="s">
         <v>432</v>
       </c>
-      <c r="AA68" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="69" spans="8:27">
-      <c r="H69" t="s">
+      <c r="AA78" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="H79" t="s">
         <v>434</v>
       </c>
-      <c r="AA69" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="70" spans="8:27">
-      <c r="H70" t="s">
+      <c r="AA79" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="H80" t="s">
         <v>436</v>
       </c>
-      <c r="AA70" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="71" spans="8:27">
-      <c r="H71" t="s">
+      <c r="AA80" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="H81" t="s">
         <v>438</v>
       </c>
-      <c r="AA71" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="72" spans="8:27">
-      <c r="H72" t="s">
+      <c r="AA81" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="H82" t="s">
         <v>440</v>
       </c>
-      <c r="AA72" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="73" spans="8:27">
-      <c r="H73" t="s">
+      <c r="AA82" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="H83" t="s">
         <v>442</v>
       </c>
-      <c r="AA73" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="74" spans="8:27">
-      <c r="H74" t="s">
-        <v>444</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="75" spans="8:27">
-      <c r="H75" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="76" spans="8:27">
-      <c r="H76" t="s">
+      <c r="AA83" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="H84" t="s">
+        <v>639</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="H85" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="H86" t="s">
         <v>448</v>
       </c>
-      <c r="AA76" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="77" spans="8:27">
-      <c r="H77" t="s">
+      <c r="AA86" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="H87" t="s">
         <v>450</v>
       </c>
-      <c r="AA77" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="78" spans="8:27">
-      <c r="H78" t="s">
+      <c r="AA87" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="H88" t="s">
         <v>452</v>
       </c>
-      <c r="AA78" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="79" spans="8:27">
-      <c r="H79" t="s">
+      <c r="AA88" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="H89" t="s">
         <v>454</v>
       </c>
-      <c r="AA79" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27">
-      <c r="H80" t="s">
-        <v>456</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27">
-      <c r="H81" t="s">
+      <c r="AA89" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="H90" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="H91" t="s">
+        <v>642</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="H92" t="s">
         <v>458</v>
       </c>
-      <c r="AA81" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27">
-      <c r="H82" t="s">
+      <c r="AA92" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="H93" t="s">
         <v>460</v>
       </c>
-      <c r="AA82" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27">
-      <c r="H83" t="s">
+      <c r="AA93" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="H94" t="s">
         <v>462</v>
       </c>
-      <c r="AA83" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27">
-      <c r="H84" t="s">
+      <c r="AA94" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="H95" t="s">
         <v>464</v>
       </c>
-      <c r="AA84" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27">
-      <c r="H85" t="s">
+      <c r="AA95" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="H96" t="s">
         <v>466</v>
       </c>
-      <c r="AA85" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27">
-      <c r="H86" t="s">
+      <c r="AA96" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="H97" t="s">
         <v>468</v>
       </c>
-      <c r="AA86" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27">
-      <c r="H87" t="s">
+      <c r="AA97" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="H98" t="s">
         <v>470</v>
       </c>
-      <c r="AA87" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27">
-      <c r="H88" t="s">
+      <c r="AA98" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
         <v>472</v>
       </c>
-      <c r="AA88" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27">
-      <c r="H89" t="s">
+      <c r="AA99" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
         <v>474</v>
       </c>
-      <c r="AA89" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27">
-      <c r="H90" t="s">
+      <c r="AA100" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
         <v>476</v>
       </c>
-      <c r="AA90" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27">
-      <c r="H91" t="s">
+      <c r="AA101" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>643</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>644</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
         <v>478</v>
       </c>
-      <c r="AA91" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27">
-      <c r="H92" t="s">
+      <c r="AA104" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
         <v>480</v>
       </c>
-      <c r="AA92" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27">
-      <c r="H93" t="s">
+      <c r="AA105" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
         <v>482</v>
       </c>
-      <c r="AA93" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27">
-      <c r="H94" t="s">
+      <c r="AA106" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
         <v>484</v>
       </c>
-      <c r="AA94" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27">
-      <c r="H95" t="s">
+      <c r="AA107" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
         <v>486</v>
       </c>
-      <c r="AA95" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27">
-      <c r="H96" t="s">
+      <c r="AA108" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
         <v>488</v>
       </c>
-      <c r="AA96" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27">
-      <c r="H97" t="s">
+      <c r="AA109" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
         <v>490</v>
       </c>
-      <c r="AA97" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27">
-      <c r="H98" t="s">
+      <c r="AA110" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>492</v>
       </c>
-      <c r="AA98" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="99" spans="8:27">
-      <c r="AA99" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="100" spans="8:27">
-      <c r="AA100" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="101" spans="8:27">
-      <c r="AA101" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="102" spans="8:27">
-      <c r="AA102" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="103" spans="8:27">
-      <c r="AA103" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="104" spans="8:27">
-      <c r="AA104" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="105" spans="8:27">
-      <c r="AA105" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="106" spans="8:27">
-      <c r="AA106" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="107" spans="8:27">
-      <c r="AA107" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="108" spans="8:27">
-      <c r="AA108" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="109" spans="8:27">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="110" spans="8:27">
-      <c r="AA110" t="s">
+    <row r="112">
+      <c r="AA112" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="111" spans="8:27">
-      <c r="AA111" t="s">
+    <row r="113">
+      <c r="AA113" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="112" spans="8:27">
-      <c r="AA112" t="s">
+    <row r="114">
+      <c r="AA114" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="27:27">
-      <c r="AA113" t="s">
+    <row r="115">
+      <c r="AA115" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="114" spans="27:27">
-      <c r="AA114" t="s">
+    <row r="116">
+      <c r="AA116" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="115" spans="27:27">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AA117" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="116" spans="27:27">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AA118" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="117" spans="27:27">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AA119" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="118" spans="27:27">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AA120" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="119" spans="27:27">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AA121" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="120" spans="27:27">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AA122" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="121" spans="27:27">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AA123" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="122" spans="27:27">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AA124" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="123" spans="27:27">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AA125" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="124" spans="27:27">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AA126" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="125" spans="27:27">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AA127" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="126" spans="27:27">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AA128" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="127" spans="27:27">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AA129" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="128" spans="27:27">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AA130" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="129" spans="27:27">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AA131" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="130" spans="27:27">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AA132" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="131" spans="27:27">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AA133" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="132" spans="27:27">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AA134" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="133" spans="27:27">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AA135" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="134" spans="27:27">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AA136" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="135" spans="27:27">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AA137" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="136" spans="27:27">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AA138" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="137" spans="27:27">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AA139" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="138" spans="27:27">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AA140" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="139" spans="27:27">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AA141" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="140" spans="27:27">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AA142" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="141" spans="27:27">
-      <c r="AA141" t="s">
+    <row r="143">
+      <c r="AA143" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="142" spans="27:27">
-      <c r="AA142" t="s">
+    <row r="144">
+      <c r="AA144" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="143" spans="27:27">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AA145" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="144" spans="27:27">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AA146" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="145" spans="27:27">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AA147" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="146" spans="27:27">
-      <c r="AA146" t="s">
+    <row r="148">
+      <c r="AA148" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="147" spans="27:27">
-      <c r="AA147" t="s">
+    <row r="149">
+      <c r="AA149" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="148" spans="27:27">
-      <c r="AA148" t="s">
+    <row r="150">
+      <c r="AA150" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="149" spans="27:27">
-      <c r="AA149" t="s">
+    <row r="151">
+      <c r="AA151" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="150" spans="27:27">
-      <c r="AA150" t="s">
+    <row r="152">
+      <c r="AA152" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="151" spans="27:27">
-      <c r="AA151" t="s">
+    <row r="153">
+      <c r="AA153" t="s">
         <v>585</v>
       </c>
     </row>
@@ -4764,9 +5278,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
@@ -4774,20 +5288,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="66.625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5" style="4" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.5" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="17.625" style="5" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="39.75" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.625" style="7" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="9" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="8" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.875" style="7" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.875" style="10" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="16.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="66.625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="4" width="9.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="29.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="35.625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="30.5" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="5" width="17.625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="6" width="39.75" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.875" collapsed="true"/>
+    <col min="16" max="16384" style="10" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.1" customHeight="1">
@@ -5023,7 +5537,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>269</v>
+        <v>625</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>604</v>
@@ -5048,7 +5562,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="32" t="s">
-        <v>279</v>
+        <v>626</v>
       </c>
       <c r="E10" s="17" t="s">
         <v>605</v>
@@ -5183,7 +5697,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="32" t="s">
-        <v>269</v>
+        <v>625</v>
       </c>
       <c r="E15" s="17" t="s">
         <v>617</v>
@@ -5235,7 +5749,7 @@
         <v>5</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>279</v>
+        <v>626</v>
       </c>
       <c r="E17" s="17" t="s">
         <v>605</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_project_properties.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_project_properties.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent>
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\nexial\nexial-core\src\test\resources\unittesting\artifact\script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5846305-8B36-4553-95A5-625010CD53E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F5846305-8B36-4553-95A5-625010CD53E5}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="15990" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="env" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="env" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -22,49 +22,52 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2132" uniqueCount="785">
   <si>
     <t>target</t>
   </si>
@@ -2044,6 +2047,381 @@
   </si>
   <si>
     <t>removeProtection(file)</t>
+  </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
   </si>
 </sst>
 </file>
@@ -2051,7 +2429,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="42">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2215,8 +2593,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2239,6 +2724,142 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -2498,222 +3119,273 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="7" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="78">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="4" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="3" fillId="4" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="4" fillId="4" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="5" fillId="4" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="6" fillId="4" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="7" fillId="4" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="8" fillId="4" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="9" fillId="4" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="10" fillId="4" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="10" fontId="10" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="13" fontId="11" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="19" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="22" fontId="16" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="25" fontId="17" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="13" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="28" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="16" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="25" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -2747,7 +3419,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2772,10 +3444,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2939,21 +3611,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2970,7 +3642,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3024,10 +3696,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI153"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM160"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3056,87 +3728,99 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>660</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>661</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>662</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>561</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>663</v>
+      </c>
+      <c r="AE1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>623</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>624</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3160,87 +3844,99 @@
         <v>35</v>
       </c>
       <c r="G2" t="s">
+        <v>664</v>
+      </c>
+      <c r="H2" t="s">
         <v>36</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>38</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>587</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>559</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>40</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" t="s">
         <v>41</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>42</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>44</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>589</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>686</v>
+      </c>
+      <c r="U2" t="s">
         <v>46</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>47</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>563</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>49</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>50</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>51</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>52</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>53</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>565</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>726</v>
+      </c>
+      <c r="AE2" t="s">
         <v>54</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>55</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>56</v>
       </c>
-      <c r="AD2" t="s">
-        <v>649</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>780</v>
+      </c>
+      <c r="AI2" t="s">
         <v>652</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>57</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>58</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3261,84 +3957,96 @@
         <v>63</v>
       </c>
       <c r="G3" t="s">
+        <v>665</v>
+      </c>
+      <c r="H3" t="s">
         <v>64</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>65</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>66</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>39</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>68</v>
       </c>
-      <c r="L3" t="s">
-        <v>69</v>
-      </c>
       <c r="M3" t="s">
+        <v>672</v>
+      </c>
+      <c r="N3" t="s">
+        <v>673</v>
+      </c>
+      <c r="O3" t="s">
         <v>70</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>71</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>72</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>590</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>687</v>
+      </c>
+      <c r="U3" t="s">
         <v>74</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>75</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>564</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>77</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>78</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>79</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>80</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>566</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>727</v>
+      </c>
+      <c r="AE3" t="s">
         <v>81</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>82</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>83</v>
       </c>
-      <c r="AD3" t="s">
-        <v>650</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>781</v>
+      </c>
+      <c r="AI3" t="s">
         <v>653</v>
       </c>
-      <c r="AF3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>782</v>
+      </c>
+      <c r="AK3" t="s">
         <v>85</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3356,84 +4064,96 @@
         <v>89</v>
       </c>
       <c r="G4" t="s">
+        <v>666</v>
+      </c>
+      <c r="H4" t="s">
         <v>90</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>91</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>92</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>94</v>
       </c>
-      <c r="L4" t="s">
-        <v>95</v>
-      </c>
       <c r="M4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" t="s">
         <v>96</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>97</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>98</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>99</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>45</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>688</v>
+      </c>
+      <c r="U4" t="s">
         <v>100</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>101</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>48</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>103</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>104</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>105</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>106</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>567</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>728</v>
+      </c>
+      <c r="AE4" t="s">
         <v>107</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>108</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>109</v>
       </c>
-      <c r="AD4" t="s">
-        <v>651</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>649</v>
+      </c>
+      <c r="AI4" t="s">
         <v>654</v>
       </c>
-      <c r="AF4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>84</v>
+      </c>
+      <c r="AK4" t="s">
         <v>110</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3451,69 +4171,84 @@
         <v>114</v>
       </c>
       <c r="G5" t="s">
+        <v>667</v>
+      </c>
+      <c r="H5" t="s">
         <v>115</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>116</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>117</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>93</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>119</v>
       </c>
-      <c r="L5" t="s">
-        <v>120</v>
+      <c r="M5" t="s">
+        <v>95</v>
       </c>
       <c r="N5" t="s">
+        <v>674</v>
+      </c>
+      <c r="P5" t="s">
         <v>121</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>122</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>591</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>568</v>
+      </c>
+      <c r="U5" t="s">
         <v>123</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>124</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>76</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>126</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>127</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>128</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>729</v>
+      </c>
+      <c r="AE5" t="s">
         <v>129</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>130</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>131</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>650</v>
+      </c>
+      <c r="AI5" t="s">
         <v>655</v>
       </c>
-      <c r="AF5" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK5" t="s">
         <v>133</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3531,69 +4266,84 @@
         <v>137</v>
       </c>
       <c r="G6" t="s">
+        <v>668</v>
+      </c>
+      <c r="H6" t="s">
         <v>138</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>139</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>140</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>118</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>560</v>
       </c>
-      <c r="L6" t="s">
-        <v>143</v>
+      <c r="M6" t="s">
+        <v>120</v>
       </c>
       <c r="N6" t="s">
+        <v>675</v>
+      </c>
+      <c r="P6" t="s">
         <v>144</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>145</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>266</v>
+      </c>
+      <c r="U6" t="s">
         <v>146</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>147</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>102</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>149</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>150</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>730</v>
+      </c>
+      <c r="AE6" t="s">
         <v>151</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>152</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>153</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>651</v>
+      </c>
+      <c r="AI6" t="s">
         <v>656</v>
       </c>
-      <c r="AF6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK6" t="s">
         <v>155</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>660</v>
       </c>
       <c r="B7" t="s">
         <v>157</v>
@@ -3601,67 +4351,79 @@
       <c r="F7" t="s">
         <v>158</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>669</v>
+      </c>
+      <c r="I7" t="s">
         <v>159</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>160</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>141</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>142</v>
       </c>
-      <c r="L7" t="s">
-        <v>588</v>
+      <c r="M7" t="s">
+        <v>143</v>
       </c>
       <c r="N7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P7" t="s">
         <v>40</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>162</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>276</v>
+      </c>
+      <c r="U7" t="s">
         <v>163</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>164</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>125</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>166</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>167</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>731</v>
+      </c>
+      <c r="AE7" t="s">
         <v>168</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>169</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>170</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>657</v>
       </c>
-      <c r="AF7" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>783</v>
+      </c>
+      <c r="AK7" t="s">
         <v>172</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>174</v>
@@ -3669,64 +4431,73 @@
       <c r="F8" t="s">
         <v>175</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>176</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>645</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>161</v>
       </c>
-      <c r="L8" t="s">
-        <v>36</v>
+      <c r="M8" t="s">
+        <v>588</v>
       </c>
       <c r="N8" t="s">
+        <v>676</v>
+      </c>
+      <c r="P8" t="s">
         <v>179</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>180</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>689</v>
+      </c>
+      <c r="U8" t="s">
         <v>181</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>182</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>148</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>183</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>184</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>732</v>
+      </c>
+      <c r="AE8" t="s">
         <v>185</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>187</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>658</v>
       </c>
-      <c r="AF8" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AK8" t="s">
         <v>189</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>191</v>
@@ -3734,1556 +4505,1885 @@
       <c r="F9" t="s">
         <v>192</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>193</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>177</v>
       </c>
-      <c r="L9" t="s">
-        <v>178</v>
+      <c r="M9" t="s">
+        <v>36</v>
       </c>
       <c r="N9" t="s">
+        <v>677</v>
+      </c>
+      <c r="P9" t="s">
         <v>196</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>197</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>284</v>
+      </c>
+      <c r="U9" t="s">
         <v>198</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>199</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>165</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>200</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>201</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>733</v>
+      </c>
+      <c r="AE9" t="s">
         <v>202</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>203</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>659</v>
       </c>
-      <c r="AF9" t="s">
-        <v>204</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL9" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>40</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>206</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>194</v>
       </c>
-      <c r="L10" t="s">
-        <v>195</v>
+      <c r="M10" t="s">
+        <v>178</v>
       </c>
       <c r="N10" t="s">
+        <v>678</v>
+      </c>
+      <c r="P10" t="s">
         <v>209</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>210</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>690</v>
+      </c>
+      <c r="U10" t="s">
         <v>211</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>212</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>213</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>734</v>
+      </c>
+      <c r="AE10" t="s">
         <v>214</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>215</v>
       </c>
-      <c r="AF10" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL10" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>586</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>219</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>207</v>
       </c>
-      <c r="L11" t="s">
-        <v>208</v>
+      <c r="M11" t="s">
+        <v>195</v>
       </c>
       <c r="N11" t="s">
+        <v>679</v>
+      </c>
+      <c r="P11" t="s">
         <v>222</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>223</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>291</v>
+      </c>
+      <c r="U11" t="s">
         <v>224</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>577</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>735</v>
+      </c>
+      <c r="AE11" t="s">
         <v>226</v>
       </c>
-      <c r="AF11" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL11" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>218</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>230</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>220</v>
       </c>
-      <c r="L12" t="s">
-        <v>221</v>
+      <c r="M12" t="s">
+        <v>208</v>
       </c>
       <c r="N12" t="s">
+        <v>680</v>
+      </c>
+      <c r="P12" t="s">
         <v>233</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>562</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>691</v>
+      </c>
+      <c r="U12" t="s">
         <v>235</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>225</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>736</v>
+      </c>
+      <c r="AE12" t="s">
         <v>237</v>
       </c>
-      <c r="AF12" t="s">
-        <v>238</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL12" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>229</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>240</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>231</v>
       </c>
-      <c r="L13" t="s">
-        <v>232</v>
+      <c r="M13" t="s">
+        <v>221</v>
       </c>
       <c r="N13" t="s">
+        <v>681</v>
+      </c>
+      <c r="P13" t="s">
         <v>243</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>234</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>692</v>
+      </c>
+      <c r="U13" t="s">
         <v>244</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>592</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>737</v>
+      </c>
+      <c r="AE13" t="s">
         <v>246</v>
       </c>
-      <c r="AF13" t="s">
-        <v>247</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>227</v>
+      </c>
+      <c r="AL13" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>661</v>
       </c>
       <c r="F14" t="s">
         <v>69</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>250</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>241</v>
       </c>
-      <c r="L14" t="s">
-        <v>242</v>
+      <c r="M14" t="s">
+        <v>232</v>
       </c>
       <c r="N14" t="s">
+        <v>682</v>
+      </c>
+      <c r="P14" t="s">
         <v>253</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>693</v>
+      </c>
+      <c r="U14" t="s">
         <v>254</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>236</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>738</v>
+      </c>
+      <c r="AE14" t="s">
         <v>256</v>
       </c>
-      <c r="AF14" t="s">
-        <v>257</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>784</v>
+      </c>
+      <c r="AL14" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>249</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>260</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>251</v>
       </c>
-      <c r="L15" t="s">
-        <v>252</v>
+      <c r="M15" t="s">
+        <v>242</v>
       </c>
       <c r="N15" t="s">
-        <v>263</v>
-      </c>
-      <c r="R15" t="s">
+        <v>683</v>
+      </c>
+      <c r="P15" t="s">
+        <v>685</v>
+      </c>
+      <c r="T15" t="s">
+        <v>694</v>
+      </c>
+      <c r="U15" t="s">
         <v>264</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>245</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE15" t="s">
         <v>568</v>
       </c>
-      <c r="AF15" t="s">
-        <v>267</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>238</v>
+      </c>
+      <c r="AL15" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>259</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>270</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>261</v>
       </c>
-      <c r="L16" t="s">
-        <v>262</v>
+      <c r="M16" t="s">
+        <v>252</v>
       </c>
       <c r="N16" t="s">
-        <v>273</v>
-      </c>
-      <c r="R16" t="s">
+        <v>684</v>
+      </c>
+      <c r="P16" t="s">
+        <v>263</v>
+      </c>
+      <c r="T16" t="s">
+        <v>695</v>
+      </c>
+      <c r="U16" t="s">
         <v>274</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>255</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>740</v>
+      </c>
+      <c r="AE16" t="s">
         <v>266</v>
       </c>
-      <c r="AF16" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL16" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>269</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>280</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>271</v>
       </c>
-      <c r="L17" t="s">
-        <v>272</v>
-      </c>
-      <c r="N17" t="s">
-        <v>282</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>262</v>
+      </c>
+      <c r="P17" t="s">
+        <v>273</v>
+      </c>
+      <c r="T17" t="s">
+        <v>401</v>
+      </c>
+      <c r="V17" t="s">
         <v>265</v>
       </c>
-      <c r="AA17" t="s">
-        <v>276</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>285</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>741</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>769</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL17" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
         <v>279</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>288</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>646</v>
       </c>
-      <c r="L18" t="s">
-        <v>281</v>
-      </c>
-      <c r="N18" t="s">
-        <v>290</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>272</v>
+      </c>
+      <c r="P18" t="s">
+        <v>282</v>
+      </c>
+      <c r="T18" t="s">
+        <v>696</v>
+      </c>
+      <c r="V18" t="s">
         <v>275</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>742</v>
+      </c>
+      <c r="AE18" t="s">
         <v>284</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>267</v>
+      </c>
+      <c r="AL18" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>625</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>294</v>
       </c>
-      <c r="L19" t="s">
-        <v>289</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>281</v>
+      </c>
+      <c r="P19" t="s">
+        <v>290</v>
+      </c>
+      <c r="T19" t="s">
+        <v>697</v>
+      </c>
+      <c r="V19" t="s">
         <v>593</v>
       </c>
-      <c r="AA19" t="s">
-        <v>291</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>743</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>770</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>277</v>
+      </c>
+      <c r="AL19" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>662</v>
       </c>
       <c r="F20" t="s">
         <v>626</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>299</v>
       </c>
-      <c r="L20" t="s">
-        <v>295</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>289</v>
+      </c>
+      <c r="T20" t="s">
+        <v>698</v>
+      </c>
+      <c r="V20" t="s">
         <v>283</v>
       </c>
-      <c r="AA20" t="s">
-        <v>296</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>291</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>285</v>
+      </c>
+      <c r="AL20" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
         <v>287</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>304</v>
       </c>
-      <c r="L21" t="s">
-        <v>300</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>295</v>
+      </c>
+      <c r="T21" t="s">
+        <v>699</v>
+      </c>
+      <c r="V21" t="s">
         <v>594</v>
       </c>
-      <c r="AA21" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>771</v>
+      </c>
+      <c r="AL21" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
         <v>571</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>309</v>
       </c>
-      <c r="L22" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>306</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>300</v>
+      </c>
+      <c r="T22" t="s">
+        <v>700</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>746</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>296</v>
+      </c>
+      <c r="AL22" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
         <v>572</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>314</v>
       </c>
-      <c r="L23" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>311</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>305</v>
+      </c>
+      <c r="T23" t="s">
+        <v>701</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>747</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>301</v>
+      </c>
+      <c r="AL23" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
         <v>573</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>319</v>
       </c>
-      <c r="L24" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>316</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>310</v>
+      </c>
+      <c r="T24" t="s">
+        <v>702</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>748</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>306</v>
+      </c>
+      <c r="AL24" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
         <v>293</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>324</v>
       </c>
-      <c r="L25" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>321</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>315</v>
+      </c>
+      <c r="T25" t="s">
+        <v>703</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>311</v>
+      </c>
+      <c r="AL25" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>561</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
         <v>298</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>627</v>
       </c>
-      <c r="L26" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>647</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>320</v>
+      </c>
+      <c r="T26" t="s">
+        <v>704</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>316</v>
+      </c>
+      <c r="AL26" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
         <v>303</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>628</v>
       </c>
-      <c r="L27" t="s">
-        <v>576</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>326</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>325</v>
+      </c>
+      <c r="T27" t="s">
+        <v>705</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>751</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>321</v>
+      </c>
+      <c r="AL27" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
         <v>574</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>329</v>
       </c>
-      <c r="L28" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>331</v>
+      <c r="M28" t="s">
+        <v>576</v>
+      </c>
+      <c r="T28" t="s">
+        <v>706</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>561</v>
       </c>
       <c r="F29" t="s">
         <v>308</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>334</v>
       </c>
-      <c r="L29" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>336</v>
+      <c r="M29" t="s">
+        <v>330</v>
+      </c>
+      <c r="T29" t="s">
+        <v>707</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>753</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
       <c r="F30" t="s">
         <v>313</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>339</v>
       </c>
-      <c r="L30" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>341</v>
+      <c r="M30" t="s">
+        <v>335</v>
+      </c>
+      <c r="T30" t="s">
+        <v>708</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>624</v>
+        <v>25</v>
       </c>
       <c r="F31" t="s">
         <v>318</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>343</v>
       </c>
-      <c r="L31" t="s">
-        <v>344</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>345</v>
+      <c r="M31" t="s">
+        <v>340</v>
+      </c>
+      <c r="T31" t="s">
+        <v>709</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>755</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F32" t="s">
         <v>323</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>347</v>
       </c>
-      <c r="L32" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>349</v>
+      <c r="M32" t="s">
+        <v>344</v>
+      </c>
+      <c r="T32" t="s">
+        <v>710</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>756</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F33" t="s">
         <v>328</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>351</v>
       </c>
-      <c r="AA33" t="s">
-        <v>352</v>
+      <c r="M33" t="s">
+        <v>348</v>
+      </c>
+      <c r="T33" t="s">
+        <v>711</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>757</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>623</v>
       </c>
       <c r="F34" t="s">
         <v>333</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>354</v>
       </c>
-      <c r="AA34" t="s">
-        <v>355</v>
+      <c r="T34" t="s">
+        <v>479</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>758</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>624</v>
+      </c>
       <c r="F35" t="s">
         <v>338</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>357</v>
       </c>
-      <c r="AA35" t="s">
-        <v>358</v>
+      <c r="T35" t="s">
+        <v>712</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>759</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
       <c r="F36" t="s">
         <v>342</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>360</v>
       </c>
-      <c r="AA36" t="s">
-        <v>361</v>
+      <c r="T36" t="s">
+        <v>499</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
       <c r="F37" t="s">
         <v>346</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>363</v>
       </c>
-      <c r="AA37" t="s">
-        <v>364</v>
+      <c r="T37" t="s">
+        <v>500</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>761</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
       <c r="F38" t="s">
         <v>350</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>366</v>
       </c>
-      <c r="AA38" t="s">
-        <v>367</v>
+      <c r="T38" t="s">
+        <v>713</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>762</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>353</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>369</v>
       </c>
-      <c r="AA39" t="s">
-        <v>370</v>
+      <c r="T39" t="s">
+        <v>714</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>763</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>356</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>372</v>
       </c>
-      <c r="AA40" t="s">
-        <v>373</v>
+      <c r="T40" t="s">
+        <v>715</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>359</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>375</v>
       </c>
-      <c r="AA41" t="s">
-        <v>376</v>
+      <c r="T41" t="s">
+        <v>716</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>765</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>362</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>377</v>
       </c>
-      <c r="AA42" t="s">
-        <v>378</v>
+      <c r="T42" t="s">
+        <v>717</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>766</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>365</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>629</v>
       </c>
-      <c r="AA43" t="s">
-        <v>380</v>
+      <c r="T43" t="s">
+        <v>718</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>767</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>368</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>379</v>
       </c>
-      <c r="AA44" t="s">
-        <v>382</v>
+      <c r="T44" t="s">
+        <v>719</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>768</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>371</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>381</v>
       </c>
-      <c r="AA45" t="s">
-        <v>384</v>
+      <c r="T45" t="s">
+        <v>720</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>374</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>383</v>
       </c>
-      <c r="AA46" t="s">
-        <v>386</v>
+      <c r="T46" t="s">
+        <v>721</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>575</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>385</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>722</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>387</v>
+      </c>
+      <c r="T48" t="s">
+        <v>723</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>389</v>
+      </c>
+      <c r="T49" t="s">
+        <v>724</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>391</v>
+      </c>
+      <c r="T50" t="s">
+        <v>581</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>393</v>
+      </c>
+      <c r="T51" t="s">
+        <v>725</v>
+      </c>
+      <c r="AE51" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>395</v>
+      </c>
+      <c r="AE52" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>397</v>
+      </c>
+      <c r="AE53" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>391</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE54" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>393</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE55" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE56" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>397</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE57" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>630</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>398</v>
+      </c>
+      <c r="AE58" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>631</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>400</v>
+      </c>
+      <c r="AE59" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>632</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>402</v>
+      </c>
+      <c r="AE60" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>633</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>670</v>
+      </c>
+      <c r="AE61" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>398</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>671</v>
+      </c>
+      <c r="AE62" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>408</v>
+      </c>
+      <c r="AE64" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>410</v>
+      </c>
+      <c r="AE65" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>406</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>412</v>
+      </c>
+      <c r="AE66" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>408</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>414</v>
+      </c>
+      <c r="AE67" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>410</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>416</v>
+      </c>
+      <c r="AE68" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>412</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE69" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>414</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE70" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE71" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>634</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE72" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>635</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>637</v>
+      </c>
+      <c r="AE73" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>636</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE74" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>420</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>422</v>
+      </c>
+      <c r="AE75" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>637</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>424</v>
+      </c>
+      <c r="AE76" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>638</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>426</v>
+      </c>
+      <c r="AE77" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>422</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>428</v>
+      </c>
+      <c r="AE78" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>424</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>430</v>
+      </c>
+      <c r="AE79" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>426</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>432</v>
+      </c>
+      <c r="AE80" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>428</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE81" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>430</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>436</v>
+      </c>
+      <c r="AE82" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>432</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE83" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>434</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>440</v>
+      </c>
+      <c r="AE84" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>436</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>442</v>
+      </c>
+      <c r="AE85" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>438</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>639</v>
+      </c>
+      <c r="AE86" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>440</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>640</v>
+      </c>
+      <c r="AE87" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>448</v>
+      </c>
+      <c r="AE88" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>639</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE89" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>640</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE90" t="s">
         <v>648</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>448</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>454</v>
+      </c>
+      <c r="AE91" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>450</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>641</v>
+      </c>
+      <c r="AE92" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>452</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>642</v>
+      </c>
+      <c r="AE93" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>454</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>458</v>
+      </c>
+      <c r="AE94" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>460</v>
+      </c>
+      <c r="AE95" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>642</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>462</v>
+      </c>
+      <c r="AE96" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>458</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>464</v>
+      </c>
+      <c r="AE97" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>460</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>466</v>
+      </c>
+      <c r="AE98" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>462</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>468</v>
+      </c>
+      <c r="AE99" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>464</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>470</v>
+      </c>
+      <c r="AE100" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>466</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>472</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>474</v>
+      </c>
+      <c r="AE102" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>468</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>476</v>
+      </c>
+      <c r="AE103" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>470</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>643</v>
+      </c>
+      <c r="AE104" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>472</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>644</v>
+      </c>
+      <c r="AE105" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>474</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>478</v>
+      </c>
+      <c r="AE106" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>476</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>480</v>
+      </c>
+      <c r="AE107" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>643</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>482</v>
+      </c>
+      <c r="AE108" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>644</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>484</v>
+      </c>
+      <c r="AE109" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>478</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>486</v>
+      </c>
+      <c r="AE110" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>480</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>488</v>
+      </c>
+      <c r="AE111" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>482</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>490</v>
+      </c>
+      <c r="AE112" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>484</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>492</v>
+      </c>
+      <c r="AE113" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>486</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>488</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>492</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>585</v>
       </c>
     </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>779</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection activeCell="A21" pane="bottomLeft" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15"/>
@@ -5304,7 +6404,7 @@
     <col min="16" max="16384" style="10" width="10.875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.1" customHeight="1">
+    <row customHeight="1" ht="23.1" r="1" spans="1:15">
       <c r="A1" s="36" t="s">
         <v>537</v>
       </c>
@@ -5335,7 +6435,7 @@
       <c r="N1" s="38"/>
       <c r="O1" s="39"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1">
+    <row customHeight="1" ht="93" r="2" spans="1:15">
       <c r="A2" s="40" t="s">
         <v>544</v>
       </c>
@@ -5356,7 +6456,7 @@
       <c r="N2" s="43"/>
       <c r="O2" s="43"/>
     </row>
-    <row r="3" spans="1:15" ht="9.9499999999999993" customHeight="1">
+    <row customHeight="1" ht="9.9499999999999993" r="3" spans="1:15">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
@@ -5373,7 +6473,7 @@
       <c r="N3" s="21"/>
       <c r="O3" s="14"/>
     </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="20.100000000000001" r="4" s="1" spans="1:15">
       <c r="A4" s="15" t="s">
         <v>546</v>
       </c>
@@ -5418,7 +6518,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="5" spans="1:15">
       <c r="A5" s="11" t="s">
         <v>595</v>
       </c>
@@ -5447,7 +6547,7 @@
       <c r="N5" s="21"/>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="6" spans="1:15">
       <c r="A6" s="11"/>
       <c r="B6" s="28" t="s">
         <v>609</v>
@@ -5474,7 +6574,7 @@
       <c r="N6" s="21"/>
       <c r="O6" s="14"/>
     </row>
-    <row r="7" spans="1:15" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="7" spans="1:15">
       <c r="A7" s="11"/>
       <c r="B7" s="31" t="s">
         <v>609</v>
@@ -5501,7 +6601,7 @@
       <c r="N7" s="21"/>
       <c r="O7" s="14"/>
     </row>
-    <row r="8" spans="1:15" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="8" spans="1:15">
       <c r="A8" s="11"/>
       <c r="B8" s="31" t="s">
         <v>608</v>
@@ -5528,7 +6628,7 @@
       <c r="N8" s="21"/>
       <c r="O8" s="14"/>
     </row>
-    <row r="9" spans="1:15" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="9" spans="1:15">
       <c r="A9" s="11"/>
       <c r="B9" s="31" t="s">
         <v>607</v>
@@ -5553,7 +6653,7 @@
       <c r="N9" s="21"/>
       <c r="O9" s="14"/>
     </row>
-    <row r="10" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="10" spans="1:15">
       <c r="A10" s="11"/>
       <c r="B10" s="31" t="s">
         <v>618</v>
@@ -5578,7 +6678,7 @@
       <c r="N10" s="21"/>
       <c r="O10" s="14"/>
     </row>
-    <row r="11" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="11" spans="1:15">
       <c r="A11" s="11"/>
       <c r="B11" s="33" t="s">
         <v>619</v>
@@ -5605,7 +6705,7 @@
       <c r="N11" s="21"/>
       <c r="O11" s="14"/>
     </row>
-    <row r="12" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="12" spans="1:15">
       <c r="A12" s="11" t="s">
         <v>610</v>
       </c>
@@ -5634,7 +6734,7 @@
       <c r="N12" s="21"/>
       <c r="O12" s="14"/>
     </row>
-    <row r="13" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="13" spans="1:15">
       <c r="A13" s="11"/>
       <c r="B13" s="28" t="s">
         <v>609</v>
@@ -5661,7 +6761,7 @@
       <c r="N13" s="21"/>
       <c r="O13" s="14"/>
     </row>
-    <row r="14" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="14" spans="1:15">
       <c r="A14" s="11"/>
       <c r="B14" s="31" t="s">
         <v>609</v>
@@ -5688,7 +6788,7 @@
       <c r="N14" s="21"/>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="15" spans="1:15">
       <c r="A15" s="11"/>
       <c r="B15" s="31" t="s">
         <v>608</v>
@@ -5713,7 +6813,7 @@
       <c r="N15" s="21"/>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="16" spans="1:15">
       <c r="A16" s="11"/>
       <c r="B16" s="31" t="s">
         <v>607</v>
@@ -5740,7 +6840,7 @@
       <c r="N16" s="21"/>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="17" spans="1:15">
       <c r="A17" s="11"/>
       <c r="B17" s="31" t="s">
         <v>606</v>
@@ -5765,7 +6865,7 @@
       <c r="N17" s="21"/>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="18" spans="1:15">
       <c r="A18" s="11"/>
       <c r="B18" s="33" t="s">
         <v>619</v>
@@ -5792,7 +6892,7 @@
       <c r="N18" s="21"/>
       <c r="O18" s="14"/>
     </row>
-    <row r="19" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="19" spans="1:15">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="16"/>
@@ -5809,7 +6909,7 @@
       <c r="N19" s="21"/>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="20" spans="1:15">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="16"/>
@@ -5826,7 +6926,7 @@
       <c r="N20" s="21"/>
       <c r="O20" s="14"/>
     </row>
-    <row r="21" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="21" spans="1:15">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="16"/>
@@ -5843,7 +6943,7 @@
       <c r="N21" s="21"/>
       <c r="O21" s="14"/>
     </row>
-    <row r="22" spans="1:15" ht="18.95" customHeight="1">
+    <row customHeight="1" ht="18.95" r="22" spans="1:15">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="16"/>
@@ -5861,7 +6961,7 @@
       <c r="O22" s="14"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -5869,24 +6969,24 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N1048576">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="7" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="7" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="9" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="9" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C22" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C22" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D22" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D22" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.69930555555555596" right="0.69930555555555596" top="0.75"/>
 </worksheet>
 </file>